--- a/ТВИМС/2/ЛР2 Регрессия.xlsx
+++ b/ТВИМС/2/ЛР2 Регрессия.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F78014-A48B-4A3D-92BE-3B023ECCE966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3086E93F-40FE-4D57-B6A8-BBA0CC5BD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -248,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -408,6 +408,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -420,8 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -443,9 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -455,8 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -473,9 +509,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1104,31 +1147,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-1.0796879867260869</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0803064552309642</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0808173639958629</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.081775317930048</c:v>
+                  <c:v>3.5714285714285712E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.082442982793268</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0834996350115811</c:v>
+                  <c:v>2.1739130434782608E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.084125498248582</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.084223422428521</c:v>
+                  <c:v>1.5873015873015872E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0846000538898244</c:v>
+                  <c:v>1.282051282051282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,35 +1606,32 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$28:$D$36</c:f>
+              <c:f>Лист1!$D$29:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
@@ -1599,35 +1639,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$28:$E$36</c:f>
+              <c:f>Лист1!$E$29:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.69314718055994529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>1.0986122886681098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0986122886681098</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.791759469228055</c:v>
+                  <c:v>1.9459101490553132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9459101490553132</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>2.0794415416798357</c:v>
                 </c:pt>
               </c:numCache>
@@ -1972,35 +2009,32 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$G$28:$G$36</c:f>
+              <c:f>Лист1!$G$29:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
@@ -2008,35 +2042,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$28:$H$36</c:f>
+              <c:f>Лист1!$H$29:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -5016,8 +5047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,73 +5061,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="25">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>4</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>5</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="25">
         <v>6</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>7</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>21</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <v>23</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <v>28</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <v>33</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="25">
         <v>46</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <v>60</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <v>63</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="25">
         <v>78</v>
       </c>
     </row>
@@ -5116,14 +5147,14 @@
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <f>B3</f>
         <v>19</v>
       </c>
-      <c r="B6" s="28" cm="1">
+      <c r="B6" s="25" cm="1">
         <f t="array" ref="B6">INDEX($B$2:$J$2, ROW(A1))</f>
         <v>0</v>
       </c>
@@ -5141,11 +5172,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <f>C3</f>
         <v>21</v>
       </c>
-      <c r="B7" s="28" cm="1">
+      <c r="B7" s="25" cm="1">
         <f t="array" ref="B7">INDEX($B$2:$J$2, ROW(A2))</f>
         <v>1</v>
       </c>
@@ -5163,11 +5194,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <f>D3</f>
         <v>23</v>
       </c>
-      <c r="B8" s="28" cm="1">
+      <c r="B8" s="25" cm="1">
         <f t="array" ref="B8">INDEX($B$2:$J$2, ROW(A3))</f>
         <v>2</v>
       </c>
@@ -5185,11 +5216,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <f>E3</f>
         <v>28</v>
       </c>
-      <c r="B9" s="28" cm="1">
+      <c r="B9" s="25" cm="1">
         <f t="array" ref="B9">INDEX($B$2:$J$2, ROW(A4))</f>
         <v>3</v>
       </c>
@@ -5207,11 +5238,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <f>F3</f>
         <v>33</v>
       </c>
-      <c r="B10" s="28" cm="1">
+      <c r="B10" s="25" cm="1">
         <f t="array" ref="B10">INDEX($B$2:$J$2, ROW(A5))</f>
         <v>4</v>
       </c>
@@ -5229,11 +5260,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <f>G3</f>
         <v>46</v>
       </c>
-      <c r="B11" s="28" cm="1">
+      <c r="B11" s="25" cm="1">
         <f t="array" ref="B11">INDEX($B$2:$J$2, ROW(A6))</f>
         <v>5</v>
       </c>
@@ -5251,11 +5282,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <f>H3</f>
         <v>60</v>
       </c>
-      <c r="B12" s="28" cm="1">
+      <c r="B12" s="25" cm="1">
         <f t="array" ref="B12">INDEX($B$2:$J$2, ROW(A7))</f>
         <v>6</v>
       </c>
@@ -5273,11 +5304,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <f>I3</f>
         <v>63</v>
       </c>
-      <c r="B13" s="28" cm="1">
+      <c r="B13" s="25" cm="1">
         <f t="array" ref="B13">INDEX($B$2:$J$2, ROW(A8))</f>
         <v>7</v>
       </c>
@@ -5295,11 +5326,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <f>J3</f>
         <v>78</v>
       </c>
-      <c r="B14" s="28" cm="1">
+      <c r="B14" s="25" cm="1">
         <f t="array" ref="B14">INDEX($B$2:$J$2, ROW(A9))</f>
         <v>8</v>
       </c>
@@ -5317,27 +5348,27 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="29">
         <f>SUM(A6:A14)</f>
         <v>371</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <f>SUM(B6:B14)</f>
         <v>36</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <f>SUM(C6:C14)</f>
         <v>1938</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="29">
         <f>SUM(D6:D14)</f>
         <v>18973</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="29">
         <f>SUM(E6:E14)</f>
         <v>204</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5379,63 +5410,63 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="35">
         <f>B16</f>
         <v>9</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="35">
         <f>A15</f>
         <v>371</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="51">
+      <c r="C20" s="30"/>
+      <c r="D20" s="52">
         <f>B15</f>
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+      <c r="A21" s="35">
         <f>A15</f>
         <v>371</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="35">
         <f>D15</f>
         <v>18973</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="52">
+      <c r="C21" s="30"/>
+      <c r="D21" s="53">
         <f>C15</f>
         <v>1938</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <f t="array" ref="A23:B24">MINVERSE(A20:B21)</f>
         <v>0.57292547409107408</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="49">
         <v>-1.1203043845875111E-2</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="50">
         <f t="array" ref="D23:D24">MMULT(A23:B24,D20:D21)</f>
         <v>-1.0861819060272992</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>-1.1203043845875111E-2</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="49">
         <v>2.7177195313443664E-4</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="51">
         <v>0.12338446672303421</v>
       </c>
     </row>
@@ -5451,578 +5482,578 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <f>$D$23+$D$24/A6</f>
-        <v>-1.0796879867260869</v>
-      </c>
-      <c r="B28" s="38">
+      <c r="A28" s="31">
+        <f>1/A6</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="B28" s="33">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="31">
         <f>A6</f>
         <v>19</v>
       </c>
-      <c r="E28" s="38" t="e">
+      <c r="E28" s="33" t="e">
         <f>LN(ABS(B6))</f>
         <v>#NUM!</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="31">
         <f>A6</f>
         <v>19</v>
       </c>
-      <c r="H28" s="38" t="e">
+      <c r="H28" s="33" t="e">
         <f>1/B6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
-        <f t="shared" ref="A29:A36" si="3">$D$23+$D$24/A7</f>
-        <v>-1.0803064552309642</v>
-      </c>
-      <c r="B29" s="38">
+      <c r="A29" s="31">
+        <f t="shared" ref="A29:A36" si="3">1/A7</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="B29" s="33">
         <f t="shared" ref="B29:B35" si="4">B7</f>
         <v>1</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="31">
         <f t="shared" ref="D29:D36" si="5">A7</f>
         <v>21</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="33">
         <f t="shared" ref="E29:E36" si="6">LN(ABS(B7))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="31">
         <f t="shared" ref="G29:G36" si="7">A7</f>
         <v>21</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="33">
         <f t="shared" ref="H29:H36" si="8">1/B7</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="31">
         <f t="shared" si="3"/>
-        <v>-1.0808173639958629</v>
-      </c>
-      <c r="B30" s="38">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="B30" s="33">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="31">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="33">
         <f t="shared" si="6"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="31">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="33">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="31">
         <f t="shared" si="3"/>
-        <v>-1.081775317930048</v>
-      </c>
-      <c r="B31" s="38">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="B31" s="33">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="31">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="33">
         <f t="shared" si="6"/>
         <v>1.0986122886681098</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="31">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="33">
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="31">
         <f t="shared" si="3"/>
-        <v>-1.082442982793268</v>
-      </c>
-      <c r="B32" s="38">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="B32" s="33">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="31">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="33">
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="31">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="33">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="31">
         <f t="shared" si="3"/>
-        <v>-1.0834996350115811</v>
-      </c>
-      <c r="B33" s="38">
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="B33" s="33">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="31">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="33">
         <f t="shared" si="6"/>
         <v>1.6094379124341003</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="31">
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="33">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="31">
         <f t="shared" si="3"/>
-        <v>-1.084125498248582</v>
-      </c>
-      <c r="B34" s="38">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="B34" s="33">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="31">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="33">
         <f t="shared" si="6"/>
         <v>1.791759469228055</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="31">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="33">
         <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="31">
         <f t="shared" si="3"/>
-        <v>-1.084223422428521</v>
-      </c>
-      <c r="B35" s="38">
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="B35" s="33">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="31">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="33">
         <f t="shared" si="6"/>
         <v>1.9459101490553132</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="31">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="33">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="31">
         <f t="shared" si="3"/>
-        <v>-1.0846000538898244</v>
-      </c>
-      <c r="B36" s="38">
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="B36" s="33">
         <f>B14</f>
         <v>8</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="31">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="33">
         <f t="shared" si="6"/>
         <v>2.0794415416798357</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="31">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="33">
         <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="26">
         <f>A6</f>
         <v>19</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <f>A39^2</f>
         <v>361</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <f>A39^3</f>
         <v>6859</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <f>A39^4</f>
         <v>130321</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="26">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <f>A39*E39</f>
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="9">
         <f>B39*E39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="26">
         <f t="shared" ref="A40:A47" si="9">A7</f>
         <v>21</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <f t="shared" ref="B40:B47" si="10">A40^2</f>
         <v>441</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <f t="shared" ref="C40:C47" si="11">A40^3</f>
         <v>9261</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <f t="shared" ref="D40:D47" si="12">A40^4</f>
         <v>194481</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="26">
         <f t="shared" ref="E40:E47" si="13">B7</f>
         <v>1</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <f t="shared" ref="F40:F47" si="14">A40*E40</f>
         <v>21</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="9">
         <f t="shared" ref="G40:G47" si="15">B40*E40</f>
         <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="26">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <f t="shared" si="10"/>
         <v>529</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <f t="shared" si="11"/>
         <v>12167</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <f t="shared" si="12"/>
         <v>279841</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="26">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="9">
         <f t="shared" si="15"/>
         <v>1058</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="26">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <f t="shared" si="10"/>
         <v>784</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <f t="shared" si="11"/>
         <v>21952</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f t="shared" si="12"/>
         <v>614656</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="26">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <f t="shared" si="15"/>
         <v>2352</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="26">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <f t="shared" si="10"/>
         <v>1089</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <f t="shared" si="11"/>
         <v>35937</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <f t="shared" si="12"/>
         <v>1185921</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="26">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <f t="shared" si="15"/>
         <v>4356</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="26">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <f t="shared" si="10"/>
         <v>2116</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <f t="shared" si="11"/>
         <v>97336</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <f t="shared" si="12"/>
         <v>4477456</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="26">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <f t="shared" si="14"/>
         <v>230</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <f t="shared" si="15"/>
         <v>10580</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <f t="shared" si="10"/>
         <v>3600</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <f t="shared" si="11"/>
         <v>216000</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <f t="shared" si="12"/>
         <v>12960000</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="26">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <f t="shared" si="14"/>
         <v>360</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <f t="shared" si="15"/>
         <v>21600</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="26">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <f t="shared" si="10"/>
         <v>3969</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <f t="shared" si="11"/>
         <v>250047</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <f t="shared" si="12"/>
         <v>15752961</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="26">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <f t="shared" si="14"/>
         <v>441</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <f t="shared" si="15"/>
         <v>27783</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="26">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <f t="shared" si="10"/>
         <v>6084</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <f t="shared" si="11"/>
         <v>474552</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <f t="shared" si="12"/>
         <v>37015056</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="26">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <f t="shared" si="14"/>
         <v>624</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <f t="shared" si="15"/>
         <v>48672</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
+      <c r="A48" s="35">
         <f>SUM(A39:A47)</f>
         <v>371</v>
       </c>
-      <c r="B48" s="41">
-        <f t="shared" ref="A48:G48" si="16">SUM(B39:B47)</f>
+      <c r="B48" s="36">
+        <f t="shared" ref="B48:G48" si="16">SUM(B39:B47)</f>
         <v>18973</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="36">
         <f t="shared" si="16"/>
         <v>1124111</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="36">
         <f>SUM(D39:D47)</f>
         <v>72610693</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="36">
         <f t="shared" si="16"/>
         <v>36</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="35">
         <f t="shared" si="16"/>
         <v>1938</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="35">
         <f t="shared" si="16"/>
         <v>116842</v>
       </c>
@@ -6065,115 +6096,115 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="42">
+      <c r="A53" s="37">
         <f>D48</f>
         <v>72610693</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="38">
         <f>C48</f>
         <v>1124111</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="39">
         <f>B48</f>
         <v>18973</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="51">
+      <c r="D53" s="7"/>
+      <c r="E53" s="46">
         <f>G48</f>
         <v>116842</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="40">
         <f>C48</f>
         <v>1124111</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="41">
         <f>B48</f>
         <v>18973</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="42">
         <f>A48</f>
         <v>371</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="53">
+      <c r="D54" s="7"/>
+      <c r="E54" s="47">
         <f>F48</f>
         <v>1938</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48">
+      <c r="A55" s="43">
         <f>B48</f>
         <v>18973</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="44">
         <f>A48</f>
         <v>371</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="45">
         <f>B49</f>
         <v>9</v>
       </c>
-      <c r="E55" s="54">
+      <c r="E55" s="48">
         <f>E48</f>
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="9"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="13">
         <f t="array" ref="A57:C59">MINVERSE(A53:C55)</f>
         <v>1.2111879559518689E-6</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>-1.1257567059509441E-4</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="15">
         <v>2.0873005225005813E-3</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="21">
         <f t="array" ref="E57:E59">MMULT(A57:C59,E53:E55)</f>
         <v>-1.5112076539437608E-3</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <v>-1.1257567059509439E-4</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="17">
         <v>1.0735285520667654E-2</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>-0.20521030332966378</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="22">
         <v>0.26384591551399872</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20">
+      <c r="A59" s="18">
         <v>2.0873005225005787E-3</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="11">
         <v>-0.20521030332966364</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="12">
         <v>4.1700744135446373</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>-3.690521315268569</v>
       </c>
     </row>

--- a/ТВИМС/2/ЛР2 Регрессия.xlsx
+++ b/ТВИМС/2/ЛР2 Регрессия.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3086E93F-40FE-4D57-B6A8-BBA0CC5BD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96AE055-BD26-49A4-89BC-183F87B6BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5047,7 +5047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
